--- a/medicine/Psychotrope/Le_Grand_Bleu_(cocktail)/Le_Grand_Bleu_(cocktail).xlsx
+++ b/medicine/Psychotrope/Le_Grand_Bleu_(cocktail)/Le_Grand_Bleu_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Grand Bleu est un cocktail à base rhum, curaçao bleu, et ginger ale[1]. 
+Le Grand Bleu est un cocktail à base rhum, curaçao bleu, et ginger ale. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail est nommé du surnom « Grand Bleu » de l'océan Atlantique (ou Grande Bleue pour la mer Méditerranée)[2],[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail est nommé du surnom « Grand Bleu » de l'océan Atlantique (ou Grande Bleue pour la mer Méditerranée),. 
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">4 cl de rhum
 2 cl de curaçao bleu
 Ginger ale
 1 rondelle de concombre et de citron vert
-Dans un shaker, incorporer et pilonner une rondelle de concombre et du citron vert. Puis mélanger avec rhum, curaçao bleu et glaçons. Filtrer le tout dans une verre à cocktail. Allongez de ginger ale[4]
+Dans un shaker, incorporer et pilonner une rondelle de concombre et du citron vert. Puis mélanger avec rhum, curaçao bleu et glaçons. Filtrer le tout dans une verre à cocktail. Allongez de ginger ale
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Blue Hawaii
